--- a/szxc_data_cleaning/tests/import/1组织信息_导入模板.xlsx
+++ b/szxc_data_cleaning/tests/import/1组织信息_导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建信金科\数字乡村\数字乡村批量导入视频\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelate\Documents\smalltools\Small-Tools\szxc_data_cleaning\tests\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA676B34-B22F-4376-96E1-E52655C4447A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97651408-77C7-4D38-ADDC-E5D8E0C378E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="组织信息" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
@@ -70,6 +70,14 @@
   </si>
   <si>
     <t>11位的正整数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -89,12 +97,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -473,22 +483,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,6 +542,28 @@
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -561,9 +593,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
